--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
-  <si>
-    <t>考試日期: 2024-10-15</t>
-  </si>
-  <si>
-    <t>考試類別: 官辦</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+  <si>
+    <t>考試日期: 2025-01-06</t>
+  </si>
+  <si>
+    <t>考試類別: 自辦</t>
   </si>
   <si>
     <t>學號</t>
@@ -34,40 +34,25 @@
     <t>備註</t>
   </si>
   <si>
-    <t>S08353016</t>
+    <t>S08110137</t>
   </si>
   <si>
     <t>無</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>S08521248</t>
   </si>
   <si>
-    <t>S09130023</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>S09210057</t>
-  </si>
-  <si>
-    <t>S09350244</t>
-  </si>
-  <si>
-    <t>S09350336</t>
+    <t>S09350138</t>
+  </si>
+  <si>
+    <t>S09350257</t>
   </si>
   <si>
     <t>S09350352</t>
   </si>
   <si>
-    <t>S10350112</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>S10350130</t>
   </si>
   <si>
     <t>S10350201</t>
@@ -82,16 +67,13 @@
     <t>S10350209</t>
   </si>
   <si>
-    <t>S10350213</t>
-  </si>
-  <si>
-    <t>S10350222</t>
-  </si>
-  <si>
     <t>S10350225</t>
   </si>
   <si>
-    <t>S10350233</t>
+    <t>S10350230</t>
+  </si>
+  <si>
+    <t>S10350234</t>
   </si>
   <si>
     <t>S10350236</t>
@@ -100,16 +82,28 @@
     <t>S10350237</t>
   </si>
   <si>
-    <t>S10350247</t>
+    <t>S10350249</t>
+  </si>
+  <si>
+    <t>S10350308</t>
+  </si>
+  <si>
+    <t>S10350310</t>
   </si>
   <si>
     <t>S10350311</t>
   </si>
   <si>
-    <t>S10350322</t>
-  </si>
-  <si>
-    <t>S10350329</t>
+    <t>S10350320</t>
+  </si>
+  <si>
+    <t>缺考</t>
+  </si>
+  <si>
+    <t>S10350323</t>
+  </si>
+  <si>
+    <t>S10350332</t>
   </si>
   <si>
     <t>S10350334</t>
@@ -118,103 +112,43 @@
     <t>S10350337</t>
   </si>
   <si>
-    <t>S10350339</t>
+    <t>S10350340</t>
   </si>
   <si>
     <t>S10350345</t>
   </si>
   <si>
-    <t>S10522033</t>
-  </si>
-  <si>
-    <t>S10920015</t>
-  </si>
-  <si>
-    <t>S11350118</t>
-  </si>
-  <si>
-    <t>S11350126</t>
-  </si>
-  <si>
-    <t>S11350130</t>
-  </si>
-  <si>
-    <t>S11350132</t>
-  </si>
-  <si>
-    <t>S11350202</t>
-  </si>
-  <si>
-    <t>S11350205</t>
-  </si>
-  <si>
-    <t>S11350207</t>
-  </si>
-  <si>
-    <t>S11350209</t>
-  </si>
-  <si>
-    <t>S11350212</t>
-  </si>
-  <si>
-    <t>S11350244</t>
-  </si>
-  <si>
-    <t>S11350303</t>
-  </si>
-  <si>
-    <t>S11350310</t>
-  </si>
-  <si>
-    <t>S11350314</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>S11350317</t>
-  </si>
-  <si>
-    <t>S11350319</t>
-  </si>
-  <si>
-    <t>S11350322</t>
-  </si>
-  <si>
-    <t>S11350338</t>
-  </si>
-  <si>
-    <t>S11350339</t>
-  </si>
-  <si>
-    <t>S11350351</t>
-  </si>
-  <si>
-    <t>S11350705</t>
-  </si>
-  <si>
-    <t>S12350107</t>
-  </si>
-  <si>
-    <t>S12350125</t>
-  </si>
-  <si>
-    <t>S12350202</t>
-  </si>
-  <si>
-    <t>S12350212</t>
-  </si>
-  <si>
-    <t>S12350227</t>
-  </si>
-  <si>
-    <t>S12350243</t>
-  </si>
-  <si>
-    <t>S12350315</t>
-  </si>
-  <si>
-    <t>S12350316</t>
+    <t>S10350705</t>
+  </si>
+  <si>
+    <t>S10350710</t>
+  </si>
+  <si>
+    <t>S10410332</t>
+  </si>
+  <si>
+    <t>S10750049</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>S11350228</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>請假</t>
   </si>
 </sst>
 </file>
@@ -546,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,613 +515,391 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="C13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="C14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
+      <c r="C18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
+      <c r="C20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>17</v>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>17</v>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
+      <c r="C24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
+      <c r="C31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>考試日期: 2025-01-06</t>
   </si>
@@ -134,21 +134,6 @@
   </si>
   <si>
     <t>S11350228</t>
-  </si>
-  <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>請假</t>
   </si>
 </sst>
 </file>
@@ -480,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -849,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -858,48 +843,6 @@
       </c>
       <c r="C34">
         <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
-  <si>
-    <t>考試日期: 2025-01-06</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>考試日期: 2025-02-19</t>
   </si>
   <si>
     <t>考試類別: 自辦</t>
@@ -34,106 +34,40 @@
     <t>備註</t>
   </si>
   <si>
-    <t>S08110137</t>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>缺考</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>請假</t>
+  </si>
+  <si>
+    <t>TEST3</t>
   </si>
   <si>
     <t>無</t>
   </si>
   <si>
-    <t>S08521248</t>
-  </si>
-  <si>
-    <t>S09350138</t>
-  </si>
-  <si>
-    <t>S09350257</t>
-  </si>
-  <si>
-    <t>S09350352</t>
-  </si>
-  <si>
-    <t>S10350130</t>
-  </si>
-  <si>
-    <t>S10350201</t>
-  </si>
-  <si>
-    <t>S10350202</t>
-  </si>
-  <si>
-    <t>S10350208</t>
-  </si>
-  <si>
-    <t>S10350209</t>
-  </si>
-  <si>
-    <t>S10350225</t>
-  </si>
-  <si>
-    <t>S10350230</t>
-  </si>
-  <si>
-    <t>S10350234</t>
-  </si>
-  <si>
-    <t>S10350236</t>
-  </si>
-  <si>
-    <t>S10350237</t>
-  </si>
-  <si>
-    <t>S10350249</t>
-  </si>
-  <si>
-    <t>S10350308</t>
-  </si>
-  <si>
-    <t>S10350310</t>
-  </si>
-  <si>
-    <t>S10350311</t>
-  </si>
-  <si>
-    <t>S10350320</t>
-  </si>
-  <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>S10350323</t>
-  </si>
-  <si>
-    <t>S10350332</t>
-  </si>
-  <si>
-    <t>S10350334</t>
-  </si>
-  <si>
-    <t>S10350337</t>
-  </si>
-  <si>
-    <t>S10350340</t>
-  </si>
-  <si>
-    <t>S10350345</t>
-  </si>
-  <si>
-    <t>S10350705</t>
-  </si>
-  <si>
-    <t>S10350710</t>
-  </si>
-  <si>
-    <t>S10410332</t>
-  </si>
-  <si>
-    <t>S10750049</t>
-  </si>
-  <si>
-    <t>S11350119</t>
-  </si>
-  <si>
-    <t>S11350228</t>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>TEST5</t>
+  </si>
+  <si>
+    <t>TEST6</t>
+  </si>
+  <si>
+    <t>TEST7</t>
+  </si>
+  <si>
+    <t>TEST8</t>
   </si>
 </sst>
 </file>
@@ -465,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,346 +437,106 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>考試日期: 2025-02-19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+  <si>
+    <t>考試日期: 2025-01-06</t>
   </si>
   <si>
     <t>考試類別: 自辦</t>
@@ -34,40 +34,106 @@
     <t>備註</t>
   </si>
   <si>
-    <t>TEST1</t>
+    <t>S08110137</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>S08521248</t>
+  </si>
+  <si>
+    <t>S09350138</t>
+  </si>
+  <si>
+    <t>S09350257</t>
+  </si>
+  <si>
+    <t>S09350352</t>
+  </si>
+  <si>
+    <t>S10350130</t>
+  </si>
+  <si>
+    <t>S10350201</t>
+  </si>
+  <si>
+    <t>S10350202</t>
+  </si>
+  <si>
+    <t>S10350208</t>
+  </si>
+  <si>
+    <t>S10350209</t>
+  </si>
+  <si>
+    <t>S10350225</t>
+  </si>
+  <si>
+    <t>S10350230</t>
+  </si>
+  <si>
+    <t>S10350234</t>
+  </si>
+  <si>
+    <t>S10350236</t>
+  </si>
+  <si>
+    <t>S10350237</t>
+  </si>
+  <si>
+    <t>S10350249</t>
+  </si>
+  <si>
+    <t>S10350308</t>
+  </si>
+  <si>
+    <t>S10350310</t>
+  </si>
+  <si>
+    <t>S10350311</t>
+  </si>
+  <si>
+    <t>S10350320</t>
   </si>
   <si>
     <t>缺考</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>請假</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>TEST4</t>
-  </si>
-  <si>
-    <t>TEST5</t>
-  </si>
-  <si>
-    <t>TEST6</t>
-  </si>
-  <si>
-    <t>TEST7</t>
-  </si>
-  <si>
-    <t>TEST8</t>
+    <t>S10350323</t>
+  </si>
+  <si>
+    <t>S10350332</t>
+  </si>
+  <si>
+    <t>S10350334</t>
+  </si>
+  <si>
+    <t>S10350337</t>
+  </si>
+  <si>
+    <t>S10350340</t>
+  </si>
+  <si>
+    <t>S10350345</t>
+  </si>
+  <si>
+    <t>S10350705</t>
+  </si>
+  <si>
+    <t>S10350710</t>
+  </si>
+  <si>
+    <t>S10410332</t>
+  </si>
+  <si>
+    <t>S10750049</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>S11350228</t>
   </si>
 </sst>
 </file>
@@ -399,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,106 +503,346 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
-  <si>
-    <t>考試日期: 2025-01-06</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+  <si>
+    <t>考試日期: 2024-07-18</t>
   </si>
   <si>
     <t>考試類別: 自辦</t>
@@ -34,106 +34,76 @@
     <t>備註</t>
   </si>
   <si>
-    <t>S08110137</t>
+    <t>S08353016</t>
   </si>
   <si>
     <t>無</t>
   </si>
   <si>
-    <t>S08521248</t>
+    <t>S09350107</t>
+  </si>
+  <si>
+    <t>S09350115</t>
   </si>
   <si>
     <t>S09350138</t>
   </si>
   <si>
+    <t>S09350205</t>
+  </si>
+  <si>
+    <t>S09350210</t>
+  </si>
+  <si>
+    <t>S09350227</t>
+  </si>
+  <si>
+    <t>S09350230</t>
+  </si>
+  <si>
+    <t>S09350240</t>
+  </si>
+  <si>
+    <t>S09350242</t>
+  </si>
+  <si>
+    <t>S09350252</t>
+  </si>
+  <si>
     <t>S09350257</t>
   </si>
   <si>
+    <t>S09350348</t>
+  </si>
+  <si>
     <t>S09350352</t>
   </si>
   <si>
-    <t>S10350130</t>
-  </si>
-  <si>
-    <t>S10350201</t>
-  </si>
-  <si>
-    <t>S10350202</t>
-  </si>
-  <si>
-    <t>S10350208</t>
-  </si>
-  <si>
-    <t>S10350209</t>
-  </si>
-  <si>
-    <t>S10350225</t>
-  </si>
-  <si>
-    <t>S10350230</t>
-  </si>
-  <si>
-    <t>S10350234</t>
-  </si>
-  <si>
-    <t>S10350236</t>
-  </si>
-  <si>
-    <t>S10350237</t>
-  </si>
-  <si>
-    <t>S10350249</t>
-  </si>
-  <si>
-    <t>S10350308</t>
-  </si>
-  <si>
-    <t>S10350310</t>
-  </si>
-  <si>
-    <t>S10350311</t>
-  </si>
-  <si>
-    <t>S10350320</t>
+    <t>S10350218</t>
+  </si>
+  <si>
+    <t>S10350304</t>
+  </si>
+  <si>
+    <t>S10750049</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TEST1</t>
   </si>
   <si>
     <t>缺考</t>
   </si>
   <si>
-    <t>S10350323</t>
-  </si>
-  <si>
-    <t>S10350332</t>
-  </si>
-  <si>
-    <t>S10350334</t>
-  </si>
-  <si>
-    <t>S10350337</t>
-  </si>
-  <si>
-    <t>S10350340</t>
-  </si>
-  <si>
-    <t>S10350345</t>
-  </si>
-  <si>
-    <t>S10350705</t>
-  </si>
-  <si>
-    <t>S10350710</t>
-  </si>
-  <si>
-    <t>S10410332</t>
-  </si>
-  <si>
-    <t>S10750049</t>
-  </si>
-  <si>
-    <t>S11350119</t>
-  </si>
-  <si>
-    <t>S11350228</t>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>請假</t>
   </si>
 </sst>
 </file>
@@ -465,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -512,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -534,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -545,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -556,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -578,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -589,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -600,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -611,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -622,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -633,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -644,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -655,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -666,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -677,10 +647,10 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -688,161 +658,38 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score_excel.xlsx
+++ b/uploads/exam_score_excel.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
-  <si>
-    <t>考試日期: 2024-07-18</t>
-  </si>
-  <si>
-    <t>考試類別: 自辦</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+  <si>
+    <t>考試日期: 2025-03-25</t>
+  </si>
+  <si>
+    <t>考試類別: 官辦</t>
   </si>
   <si>
     <t>學號</t>
@@ -34,76 +34,166 @@
     <t>備註</t>
   </si>
   <si>
-    <t>S08353016</t>
+    <t>S07352016</t>
   </si>
   <si>
     <t>無</t>
   </si>
   <si>
-    <t>S09350107</t>
-  </si>
-  <si>
-    <t>S09350115</t>
-  </si>
-  <si>
     <t>S09350138</t>
   </si>
   <si>
-    <t>S09350205</t>
-  </si>
-  <si>
-    <t>S09350210</t>
-  </si>
-  <si>
-    <t>S09350227</t>
-  </si>
-  <si>
-    <t>S09350230</t>
-  </si>
-  <si>
-    <t>S09350240</t>
-  </si>
-  <si>
-    <t>S09350242</t>
-  </si>
-  <si>
-    <t>S09350252</t>
-  </si>
-  <si>
-    <t>S09350257</t>
-  </si>
-  <si>
-    <t>S09350348</t>
-  </si>
-  <si>
-    <t>S09350352</t>
-  </si>
-  <si>
-    <t>S10350218</t>
-  </si>
-  <si>
-    <t>S10350304</t>
-  </si>
-  <si>
-    <t>S10750049</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>請假</t>
+    <t>S10350104</t>
+  </si>
+  <si>
+    <t>S10350106</t>
+  </si>
+  <si>
+    <t>S10350110</t>
+  </si>
+  <si>
+    <t>S10350118</t>
+  </si>
+  <si>
+    <t>S10350119</t>
+  </si>
+  <si>
+    <t>S10350120</t>
+  </si>
+  <si>
+    <t>S10350122</t>
+  </si>
+  <si>
+    <t>S10350123</t>
+  </si>
+  <si>
+    <t>S10350125</t>
+  </si>
+  <si>
+    <t>S10350126</t>
+  </si>
+  <si>
+    <t>S10350130</t>
+  </si>
+  <si>
+    <t>S10350137</t>
+  </si>
+  <si>
+    <t>S10350142</t>
+  </si>
+  <si>
+    <t>S10350143</t>
+  </si>
+  <si>
+    <t>S10350147</t>
+  </si>
+  <si>
+    <t>S10350150</t>
+  </si>
+  <si>
+    <t>S10350151</t>
+  </si>
+  <si>
+    <t>S10350152</t>
+  </si>
+  <si>
+    <t>S10350205</t>
+  </si>
+  <si>
+    <t>S10350209</t>
+  </si>
+  <si>
+    <t>S10350213</t>
+  </si>
+  <si>
+    <t>S10350222</t>
+  </si>
+  <si>
+    <t>S10350235</t>
+  </si>
+  <si>
+    <t>S10350237</t>
+  </si>
+  <si>
+    <t>S10350247</t>
+  </si>
+  <si>
+    <t>S10350301</t>
+  </si>
+  <si>
+    <t>S10350311</t>
+  </si>
+  <si>
+    <t>S10350332</t>
+  </si>
+  <si>
+    <t>S10350333</t>
+  </si>
+  <si>
+    <t>S10350335</t>
+  </si>
+  <si>
+    <t>S10350337</t>
+  </si>
+  <si>
+    <t>S10350347</t>
+  </si>
+  <si>
+    <t>S11240010</t>
+  </si>
+  <si>
+    <t>S11350104</t>
+  </si>
+  <si>
+    <t>S11350110</t>
+  </si>
+  <si>
+    <t>S11350113</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>S11350142</t>
+  </si>
+  <si>
+    <t>S11350150</t>
+  </si>
+  <si>
+    <t>S11350202</t>
+  </si>
+  <si>
+    <t>S11350207</t>
+  </si>
+  <si>
+    <t>S11350244</t>
+  </si>
+  <si>
+    <t>S11350303</t>
+  </si>
+  <si>
+    <t>S11350705</t>
+  </si>
+  <si>
+    <t>S11490079</t>
+  </si>
+  <si>
+    <t>S12350201</t>
+  </si>
+  <si>
+    <t>S12350244</t>
+  </si>
+  <si>
+    <t>S12350338</t>
+  </si>
+  <si>
+    <t>S13350125</t>
+  </si>
+  <si>
+    <t>S13350322</t>
+  </si>
+  <si>
+    <t>S13350338</t>
   </si>
 </sst>
 </file>
@@ -435,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -504,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -537,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -559,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -603,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -614,10 +704,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -625,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -636,10 +726,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -647,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -658,38 +748,392 @@
         <v>7</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
